--- a/WebDemo/static/data/dummy_data.xlsx
+++ b/WebDemo/static/data/dummy_data.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\GitHub\Python\WebDemo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5664AC6D-A141-4AC2-9EE1-E060303F25DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="2100" windowWidth="14400" windowHeight="7360" xr2:uid="{6A567D6A-2459-4228-A548-808BC0F1E352}"/>
+    <workbookView xWindow="4035" yWindow="2100" windowWidth="14400" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,57 +25,223 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Carly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birth Month</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Origin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>January</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rachel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steptember</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+  <si>
+    <t>TRANSACTION_SOURCE_NAME</t>
+  </si>
+  <si>
+    <t>LB_PART_NO</t>
+  </si>
+  <si>
+    <t>LB_MODEL</t>
+  </si>
+  <si>
+    <t>TRANSACTION_TYPE_NAME</t>
+  </si>
+  <si>
+    <t>PART_NO</t>
+  </si>
+  <si>
+    <t>PKG_MODEL</t>
+  </si>
+  <si>
+    <t>SUBCODE</t>
+  </si>
+  <si>
+    <t>C11LM98064</t>
+  </si>
+  <si>
+    <t>60.AG6M7.213D520</t>
+  </si>
+  <si>
+    <t>TUG16MA.7</t>
+  </si>
+  <si>
+    <t>WIP component issue</t>
+  </si>
+  <si>
+    <t>95.C3014.H5B010N</t>
+  </si>
+  <si>
+    <t>PC30H15.0</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>C11LM98065</t>
+  </si>
+  <si>
+    <t>60.AG6T2.A10U520</t>
+  </si>
+  <si>
+    <t>TUG16TI.2</t>
+  </si>
+  <si>
+    <t>95.C3014.H5B017N</t>
+  </si>
+  <si>
+    <t>PC30H13.0</t>
+  </si>
+  <si>
+    <t>C11LM98013</t>
+  </si>
+  <si>
+    <t>96.CL440.300031Z</t>
+  </si>
+  <si>
+    <t>LBL4403.3</t>
+  </si>
+  <si>
+    <t>95.C3014.HBB009N</t>
+  </si>
+  <si>
+    <t>PC30H08.3</t>
+  </si>
+  <si>
+    <t>C11LM98010</t>
+  </si>
+  <si>
+    <t>96.CL440.300032Z</t>
+  </si>
+  <si>
+    <t>95.C3014.HCB010N</t>
+  </si>
+  <si>
+    <t>F/G</t>
+  </si>
+  <si>
+    <t>C11LM98021</t>
+  </si>
+  <si>
+    <t>96.CL223.A00011W</t>
+  </si>
+  <si>
+    <t>LBL223A.1</t>
+  </si>
+  <si>
+    <t>95.C3528.H3C004Z</t>
+  </si>
+  <si>
+    <t>None.0</t>
+  </si>
+  <si>
+    <t>C11LM98060</t>
+  </si>
+  <si>
+    <t>60.AG6U2.865D530</t>
+  </si>
+  <si>
+    <t>TUGL6PU.2</t>
+  </si>
+  <si>
+    <t>95.C5630.H5B110Z</t>
+  </si>
+  <si>
+    <t>C11LM98034</t>
+  </si>
+  <si>
+    <t>60.AG6M8.439D540</t>
+  </si>
+  <si>
+    <t>TUG16MA.8</t>
+  </si>
+  <si>
+    <t>95.C5630.H5B111N</t>
+  </si>
+  <si>
+    <t>PC56H18.1</t>
+  </si>
+  <si>
+    <t>C11LM98057</t>
+  </si>
+  <si>
+    <t>60.A8XM1.865D561</t>
+  </si>
+  <si>
+    <t>TU8GXMA.1</t>
+  </si>
+  <si>
+    <t>95.C5630.H5B114N</t>
+  </si>
+  <si>
+    <t>C11LM98047</t>
+  </si>
+  <si>
+    <t>60.AG6U1.A11D500</t>
+  </si>
+  <si>
+    <t>TUGL6PU.1</t>
+  </si>
+  <si>
+    <t>95.C5630.HCB100Z</t>
+  </si>
+  <si>
+    <t>C11LM98027</t>
+  </si>
+  <si>
+    <t>60.AG6U1.426D511</t>
+  </si>
+  <si>
+    <t>95.C5630.HCB102Z</t>
+  </si>
+  <si>
+    <t>C11LM98502</t>
+  </si>
+  <si>
+    <t>96.B1250.200010Z</t>
+  </si>
+  <si>
+    <t>LB12502.1</t>
+  </si>
+  <si>
+    <t>95.S2808.W0A104N</t>
+  </si>
+  <si>
+    <t>PS08W11.2</t>
+  </si>
+  <si>
+    <t>C11LM98504</t>
+  </si>
+  <si>
+    <t>96.B1407.J00000Z</t>
+  </si>
+  <si>
+    <t>LB1407J.0</t>
+  </si>
+  <si>
+    <t>95.S3805.W0A001N</t>
+  </si>
+  <si>
+    <t>PS05W02.0</t>
+  </si>
+  <si>
+    <t>C11LM98327</t>
+  </si>
+  <si>
+    <t>96.B1405.700010Z</t>
+  </si>
+  <si>
+    <t>LB14057.1</t>
+  </si>
+  <si>
+    <t>VIRTUAL</t>
+  </si>
+  <si>
+    <t>C11LM98562</t>
+  </si>
+  <si>
+    <t>96.B1335.500000Z</t>
+  </si>
+  <si>
+    <t>LB13355.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,12 +258,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,10 +286,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -184,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -236,7 +404,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -430,68 +598,374 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D084271E-776E-4FA3-B002-2C35071A3300}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
